--- a/data/pca/factorExposure/factorExposure_2012-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-12.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01798068520885621</v>
+        <v>-0.02297152639133878</v>
       </c>
       <c r="C2">
-        <v>0.02798259117241384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02450946084188557</v>
+      </c>
+      <c r="D2">
+        <v>-0.005022428770687926</v>
+      </c>
+      <c r="E2">
+        <v>-0.01668874356092052</v>
+      </c>
+      <c r="F2">
+        <v>-0.005621222880122874</v>
+      </c>
+      <c r="G2">
+        <v>-0.01553601715680559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06848950261124225</v>
+        <v>-0.07488488064101614</v>
       </c>
       <c r="C4">
-        <v>0.05827793603192628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03910251951105326</v>
+      </c>
+      <c r="D4">
+        <v>-0.07052841195841043</v>
+      </c>
+      <c r="E4">
+        <v>0.004110603577265743</v>
+      </c>
+      <c r="F4">
+        <v>-0.01955422191147699</v>
+      </c>
+      <c r="G4">
+        <v>0.02393037070198946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09663763306559603</v>
+        <v>-0.112219865219325</v>
       </c>
       <c r="C6">
-        <v>0.06588938751796071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04515471736780401</v>
+      </c>
+      <c r="D6">
+        <v>-0.01373709154096494</v>
+      </c>
+      <c r="E6">
+        <v>0.007404326290471662</v>
+      </c>
+      <c r="F6">
+        <v>-0.04459160679270188</v>
+      </c>
+      <c r="G6">
+        <v>-0.01475301673841158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04510053875751963</v>
+        <v>-0.05401875376537242</v>
       </c>
       <c r="C7">
-        <v>0.03476798456228434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02590797565506137</v>
+      </c>
+      <c r="D7">
+        <v>-0.03395070423440125</v>
+      </c>
+      <c r="E7">
+        <v>-0.0226622968933799</v>
+      </c>
+      <c r="F7">
+        <v>-0.02644028111152</v>
+      </c>
+      <c r="G7">
+        <v>0.03778712081993927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03274998536935095</v>
+        <v>-0.03345194903442478</v>
       </c>
       <c r="C8">
-        <v>0.02665702790535155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01708277461786738</v>
+      </c>
+      <c r="D8">
+        <v>-0.03970318730203119</v>
+      </c>
+      <c r="E8">
+        <v>-0.008883140208476473</v>
+      </c>
+      <c r="F8">
+        <v>-0.04974574330822529</v>
+      </c>
+      <c r="G8">
+        <v>-0.02094993070122862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06186395765490207</v>
+        <v>-0.0692592442222313</v>
       </c>
       <c r="C9">
-        <v>0.04533505785431879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02878167844985557</v>
+      </c>
+      <c r="D9">
+        <v>-0.07166980968467902</v>
+      </c>
+      <c r="E9">
+        <v>-0.01624754910240536</v>
+      </c>
+      <c r="F9">
+        <v>-0.0327533752386029</v>
+      </c>
+      <c r="G9">
+        <v>0.009755330979556033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03020103506840866</v>
+        <v>-0.0408286824211935</v>
       </c>
       <c r="C10">
-        <v>0.03752790004742329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03839280162760433</v>
+      </c>
+      <c r="D10">
+        <v>0.1838823128189009</v>
+      </c>
+      <c r="E10">
+        <v>-0.04703302623620388</v>
+      </c>
+      <c r="F10">
+        <v>-0.03007095264651773</v>
+      </c>
+      <c r="G10">
+        <v>0.02470496081066789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06991406065625363</v>
+        <v>-0.07584831716462891</v>
       </c>
       <c r="C11">
-        <v>0.05285640774609347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03137845263270755</v>
+      </c>
+      <c r="D11">
+        <v>-0.0672347732782714</v>
+      </c>
+      <c r="E11">
+        <v>0.007012805556445288</v>
+      </c>
+      <c r="F11">
+        <v>-0.03613490080892147</v>
+      </c>
+      <c r="G11">
+        <v>0.03904314730474375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05283825867806288</v>
+        <v>-0.0604634006677008</v>
       </c>
       <c r="C12">
-        <v>0.05134528813574615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03538694197355751</v>
+      </c>
+      <c r="D12">
+        <v>-0.04998603364781506</v>
+      </c>
+      <c r="E12">
+        <v>-0.009719702654357515</v>
+      </c>
+      <c r="F12">
+        <v>-0.02671820950506936</v>
+      </c>
+      <c r="G12">
+        <v>0.0332004953068718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05967850053176932</v>
+        <v>-0.06464544567210861</v>
       </c>
       <c r="C13">
-        <v>0.05193031525944759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03063378394214309</v>
+      </c>
+      <c r="D13">
+        <v>-0.0571544851323113</v>
+      </c>
+      <c r="E13">
+        <v>-0.005204894827548039</v>
+      </c>
+      <c r="F13">
+        <v>-0.0114130677602452</v>
+      </c>
+      <c r="G13">
+        <v>0.02078658501950262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03386760729308806</v>
+        <v>-0.03883127866353011</v>
       </c>
       <c r="C14">
-        <v>0.0295385694031917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02264825116116893</v>
+      </c>
+      <c r="D14">
+        <v>-0.01152171357680858</v>
+      </c>
+      <c r="E14">
+        <v>-0.01871398658898069</v>
+      </c>
+      <c r="F14">
+        <v>-0.01751865358379709</v>
+      </c>
+      <c r="G14">
+        <v>-0.007173954841335884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.04014071348224607</v>
+        <v>-0.04042781222635685</v>
       </c>
       <c r="C15">
-        <v>0.01427329131699792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004945158044326458</v>
+      </c>
+      <c r="D15">
+        <v>-0.01960335835861049</v>
+      </c>
+      <c r="E15">
+        <v>-0.04249631639857267</v>
+      </c>
+      <c r="F15">
+        <v>0.003602208366131079</v>
+      </c>
+      <c r="G15">
+        <v>-0.01963389914801184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05796760135639367</v>
+        <v>-0.06151870143732894</v>
       </c>
       <c r="C16">
-        <v>0.04372378443385923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0271582330103361</v>
+      </c>
+      <c r="D16">
+        <v>-0.0592443129354957</v>
+      </c>
+      <c r="E16">
+        <v>-0.001406278486042664</v>
+      </c>
+      <c r="F16">
+        <v>-0.02872905467921024</v>
+      </c>
+      <c r="G16">
+        <v>0.02356144648081869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0622435621184508</v>
+        <v>-0.06143654794762907</v>
       </c>
       <c r="C20">
-        <v>0.03683286736124235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01816810951250546</v>
+      </c>
+      <c r="D20">
+        <v>-0.04921686151516216</v>
+      </c>
+      <c r="E20">
+        <v>-0.01910630956289091</v>
+      </c>
+      <c r="F20">
+        <v>-0.02413464511867534</v>
+      </c>
+      <c r="G20">
+        <v>0.02594444518983497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02670996101971491</v>
+        <v>-0.02289203195236824</v>
       </c>
       <c r="C21">
-        <v>-2.411952532887416e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01081455371387021</v>
+      </c>
+      <c r="D21">
+        <v>-0.03701790014548056</v>
+      </c>
+      <c r="E21">
+        <v>-0.09113836738732801</v>
+      </c>
+      <c r="F21">
+        <v>0.009099538590285103</v>
+      </c>
+      <c r="G21">
+        <v>-0.02006884161202793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.07050417580622777</v>
+        <v>-0.07003106902151608</v>
       </c>
       <c r="C22">
-        <v>0.07748393198306099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04877036033560853</v>
+      </c>
+      <c r="D22">
+        <v>-0.1094718192819643</v>
+      </c>
+      <c r="E22">
+        <v>-0.6028580673012105</v>
+      </c>
+      <c r="F22">
+        <v>0.1576276457108263</v>
+      </c>
+      <c r="G22">
+        <v>-0.0509893984964039</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.07125235836833807</v>
+        <v>-0.07073917208452279</v>
       </c>
       <c r="C23">
-        <v>0.07700610616976081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04820963788259152</v>
+      </c>
+      <c r="D23">
+        <v>-0.1106065668684859</v>
+      </c>
+      <c r="E23">
+        <v>-0.6020265123881693</v>
+      </c>
+      <c r="F23">
+        <v>0.1573246150486771</v>
+      </c>
+      <c r="G23">
+        <v>-0.05252533160313624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06435269695517376</v>
+        <v>-0.07234993019943821</v>
       </c>
       <c r="C24">
-        <v>0.05120961932176732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03247872822960234</v>
+      </c>
+      <c r="D24">
+        <v>-0.06595793476113471</v>
+      </c>
+      <c r="E24">
+        <v>-0.007244488846227299</v>
+      </c>
+      <c r="F24">
+        <v>-0.04312664778492298</v>
+      </c>
+      <c r="G24">
+        <v>0.01736945107295258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06550452679172947</v>
+        <v>-0.0712227978132287</v>
       </c>
       <c r="C25">
-        <v>0.05771401768540715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03833576119316423</v>
+      </c>
+      <c r="D25">
+        <v>-0.06380430693895656</v>
+      </c>
+      <c r="E25">
+        <v>-0.008184906604436404</v>
+      </c>
+      <c r="F25">
+        <v>-0.03949332225815512</v>
+      </c>
+      <c r="G25">
+        <v>0.01544902390969849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03905433958180978</v>
+        <v>-0.0399993724902222</v>
       </c>
       <c r="C26">
-        <v>0.01341736867259469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005037319170201569</v>
+      </c>
+      <c r="D26">
+        <v>-0.02059272985907016</v>
+      </c>
+      <c r="E26">
+        <v>-0.03843978347998366</v>
+      </c>
+      <c r="F26">
+        <v>-0.01425848445433042</v>
+      </c>
+      <c r="G26">
+        <v>0.01930021675719852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05655404686452322</v>
+        <v>-0.07636559956383415</v>
       </c>
       <c r="C28">
-        <v>0.07679467762328618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07664777032957025</v>
+      </c>
+      <c r="D28">
+        <v>0.3235869420588618</v>
+      </c>
+      <c r="E28">
+        <v>-0.04932437871344314</v>
+      </c>
+      <c r="F28">
+        <v>-0.05348234078287666</v>
+      </c>
+      <c r="G28">
+        <v>-0.02685381605687113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03701905975431526</v>
+        <v>-0.04254855021991381</v>
       </c>
       <c r="C29">
-        <v>0.03317613872891825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02576200846422927</v>
+      </c>
+      <c r="D29">
+        <v>-0.009520433606914768</v>
+      </c>
+      <c r="E29">
+        <v>-0.04402838590286327</v>
+      </c>
+      <c r="F29">
+        <v>-0.008738242388674535</v>
+      </c>
+      <c r="G29">
+        <v>0.005691117966302506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.113982070965105</v>
+        <v>-0.1270068160920375</v>
       </c>
       <c r="C30">
-        <v>0.09782803470276952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06614079238902888</v>
+      </c>
+      <c r="D30">
+        <v>-0.105481982328026</v>
+      </c>
+      <c r="E30">
+        <v>-0.03709871265902419</v>
+      </c>
+      <c r="F30">
+        <v>-0.009217367008004617</v>
+      </c>
+      <c r="G30">
+        <v>-0.001128857153732075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03783547330992609</v>
+        <v>-0.04276181676833363</v>
       </c>
       <c r="C31">
-        <v>0.02457968404487789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01555008567273468</v>
+      </c>
+      <c r="D31">
+        <v>-0.02976273121305975</v>
+      </c>
+      <c r="E31">
+        <v>-0.02087128623302618</v>
+      </c>
+      <c r="F31">
+        <v>-0.01417314319321755</v>
+      </c>
+      <c r="G31">
+        <v>0.02009962790122395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03252794261768276</v>
+        <v>-0.03378034294148531</v>
       </c>
       <c r="C32">
-        <v>0.02921216851167985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01831380884423436</v>
+      </c>
+      <c r="D32">
+        <v>-0.01560032869013076</v>
+      </c>
+      <c r="E32">
+        <v>-0.06163899674555222</v>
+      </c>
+      <c r="F32">
+        <v>0.01536148429380436</v>
+      </c>
+      <c r="G32">
+        <v>-0.004672182061896685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07621732197748203</v>
+        <v>-0.08734969471921283</v>
       </c>
       <c r="C33">
-        <v>0.05067853701848859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03273286033013266</v>
+      </c>
+      <c r="D33">
+        <v>-0.06318037728227144</v>
+      </c>
+      <c r="E33">
+        <v>-0.01387569660895483</v>
+      </c>
+      <c r="F33">
+        <v>-0.001388459629265454</v>
+      </c>
+      <c r="G33">
+        <v>0.03039659920951316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05158457232101905</v>
+        <v>-0.05650624621669537</v>
       </c>
       <c r="C34">
-        <v>0.0326335243135592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01869296190167276</v>
+      </c>
+      <c r="D34">
+        <v>-0.05703429664975358</v>
+      </c>
+      <c r="E34">
+        <v>-0.004242457130287554</v>
+      </c>
+      <c r="F34">
+        <v>-0.02839571649948431</v>
+      </c>
+      <c r="G34">
+        <v>0.01541579604821984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03748926966566781</v>
+        <v>-0.03964724887946123</v>
       </c>
       <c r="C35">
-        <v>0.01363478501047717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.006016806631663984</v>
+      </c>
+      <c r="D35">
+        <v>-0.01022122763866226</v>
+      </c>
+      <c r="E35">
+        <v>-0.03164100963185056</v>
+      </c>
+      <c r="F35">
+        <v>0.006467790543126348</v>
+      </c>
+      <c r="G35">
+        <v>0.009126147613922005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01897279699866446</v>
+        <v>-0.02248099319257258</v>
       </c>
       <c r="C36">
-        <v>0.01531485943046662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01002823572724218</v>
+      </c>
+      <c r="D36">
+        <v>-0.01893573741578407</v>
+      </c>
+      <c r="E36">
+        <v>-0.03435678656710901</v>
+      </c>
+      <c r="F36">
+        <v>-0.01395919753944713</v>
+      </c>
+      <c r="G36">
+        <v>0.01883374119795196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03758975928391411</v>
+        <v>-0.04003383412748891</v>
       </c>
       <c r="C38">
-        <v>0.01318512119601002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003883979061007885</v>
+      </c>
+      <c r="D38">
+        <v>-0.01203659293286311</v>
+      </c>
+      <c r="E38">
+        <v>-0.06040365542148197</v>
+      </c>
+      <c r="F38">
+        <v>0.0264864916966198</v>
+      </c>
+      <c r="G38">
+        <v>-0.02724878556998539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08764452742478601</v>
+        <v>-0.09910741167086463</v>
       </c>
       <c r="C39">
-        <v>0.08000615663289735</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05376404702506141</v>
+      </c>
+      <c r="D39">
+        <v>-0.08541883698663832</v>
+      </c>
+      <c r="E39">
+        <v>0.01708256768323132</v>
+      </c>
+      <c r="F39">
+        <v>-0.02502597707064992</v>
+      </c>
+      <c r="G39">
+        <v>-0.00706955687358317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0683395424063646</v>
+        <v>-0.07514278688064549</v>
       </c>
       <c r="C40">
-        <v>0.05769290661795344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.0401237574208376</v>
+      </c>
+      <c r="D40">
+        <v>-0.008032965502892474</v>
+      </c>
+      <c r="E40">
+        <v>-0.03095110337584349</v>
+      </c>
+      <c r="F40">
+        <v>0.03974492678069713</v>
+      </c>
+      <c r="G40">
+        <v>-0.03913158521890344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03869487179302279</v>
+        <v>-0.04207729711070277</v>
       </c>
       <c r="C41">
-        <v>0.01597807242499547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007856819075709452</v>
+      </c>
+      <c r="D41">
+        <v>-0.04231031093299828</v>
+      </c>
+      <c r="E41">
+        <v>-0.008532459005674732</v>
+      </c>
+      <c r="F41">
+        <v>0.01240141347973282</v>
+      </c>
+      <c r="G41">
+        <v>-0.00282940240661223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04095659793244086</v>
+        <v>-0.04887960546381326</v>
       </c>
       <c r="C43">
-        <v>0.03654813780176017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02346035799856096</v>
+      </c>
+      <c r="D43">
+        <v>-0.02848651241969317</v>
+      </c>
+      <c r="E43">
+        <v>-0.0184634177829112</v>
+      </c>
+      <c r="F43">
+        <v>-0.008951131761819433</v>
+      </c>
+      <c r="G43">
+        <v>0.01579098628380306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08767177315564473</v>
+        <v>-0.08935955983499419</v>
       </c>
       <c r="C44">
-        <v>0.09165962679843674</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06074258756552894</v>
+      </c>
+      <c r="D44">
+        <v>-0.06567998416919379</v>
+      </c>
+      <c r="E44">
+        <v>-0.09386579025935821</v>
+      </c>
+      <c r="F44">
+        <v>-0.0539917730080856</v>
+      </c>
+      <c r="G44">
+        <v>-0.0009867921356335378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02771978340290837</v>
+        <v>-0.02842313703528701</v>
       </c>
       <c r="C46">
-        <v>0.01957280544130094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01238051661888647</v>
+      </c>
+      <c r="D46">
+        <v>-0.03316864439695848</v>
+      </c>
+      <c r="E46">
+        <v>-0.02179381439968683</v>
+      </c>
+      <c r="F46">
+        <v>-0.01969935332016794</v>
+      </c>
+      <c r="G46">
+        <v>-0.007187328282206546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02985705269277918</v>
+        <v>-0.03255818804783583</v>
       </c>
       <c r="C47">
-        <v>0.02122196557170151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01330926526586324</v>
+      </c>
+      <c r="D47">
+        <v>-0.01785787866596884</v>
+      </c>
+      <c r="E47">
+        <v>-0.04993026772717181</v>
+      </c>
+      <c r="F47">
+        <v>-0.01176505806007893</v>
+      </c>
+      <c r="G47">
+        <v>0.02741363906425888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0278363199109144</v>
+        <v>-0.03181949570534245</v>
       </c>
       <c r="C48">
-        <v>0.01864530615047087</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01165839155555559</v>
+      </c>
+      <c r="D48">
+        <v>-0.02829273061970513</v>
+      </c>
+      <c r="E48">
+        <v>-0.04092521091638915</v>
+      </c>
+      <c r="F48">
+        <v>-0.0127922871679192</v>
+      </c>
+      <c r="G48">
+        <v>0.01141258485625241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.155849094850659</v>
+        <v>-0.1767535762191244</v>
       </c>
       <c r="C49">
-        <v>0.09447196846204649</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05885713216769525</v>
+      </c>
+      <c r="D49">
+        <v>-0.008916976328113073</v>
+      </c>
+      <c r="E49">
+        <v>0.1158999804068286</v>
+      </c>
+      <c r="F49">
+        <v>-0.01452318001866924</v>
+      </c>
+      <c r="G49">
+        <v>0.07364147122183523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0324902793077305</v>
+        <v>-0.03986754871247716</v>
       </c>
       <c r="C50">
-        <v>0.02633610433501549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02146198795699079</v>
+      </c>
+      <c r="D50">
+        <v>-0.04058392532899512</v>
+      </c>
+      <c r="E50">
+        <v>-0.04565564936083294</v>
+      </c>
+      <c r="F50">
+        <v>-0.02591758231293677</v>
+      </c>
+      <c r="G50">
+        <v>0.02109630557224605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0250348737932787</v>
+        <v>-0.02617326489336333</v>
       </c>
       <c r="C51">
-        <v>0.01893874713559294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01150370773075064</v>
+      </c>
+      <c r="D51">
+        <v>-0.02505235291473478</v>
+      </c>
+      <c r="E51">
+        <v>-0.01438343219639862</v>
+      </c>
+      <c r="F51">
+        <v>-0.007730372354536287</v>
+      </c>
+      <c r="G51">
+        <v>-0.008767598232648973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1422176384824796</v>
+        <v>-0.1599466045895151</v>
       </c>
       <c r="C53">
-        <v>0.1020619815625756</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06965575164235557</v>
+      </c>
+      <c r="D53">
+        <v>-0.02413246461780654</v>
+      </c>
+      <c r="E53">
+        <v>0.03350826793041872</v>
+      </c>
+      <c r="F53">
+        <v>-0.02816832833227761</v>
+      </c>
+      <c r="G53">
+        <v>0.02685798834731777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05245953843286517</v>
+        <v>-0.05606341934175835</v>
       </c>
       <c r="C54">
-        <v>0.02558454990173204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01254072893230051</v>
+      </c>
+      <c r="D54">
+        <v>-0.03676916466677841</v>
+      </c>
+      <c r="E54">
+        <v>-0.04006418440455646</v>
+      </c>
+      <c r="F54">
+        <v>-0.01050271489978202</v>
+      </c>
+      <c r="G54">
+        <v>0.01076024999588759</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09393978395542721</v>
+        <v>-0.1004555506580482</v>
       </c>
       <c r="C55">
-        <v>0.06338281518795874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04280318450262532</v>
+      </c>
+      <c r="D55">
+        <v>-0.03298770529474236</v>
+      </c>
+      <c r="E55">
+        <v>-0.008549391788533542</v>
+      </c>
+      <c r="F55">
+        <v>-0.02788132465192478</v>
+      </c>
+      <c r="G55">
+        <v>0.009796734854838313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1375083075251674</v>
+        <v>-0.1587494958793991</v>
       </c>
       <c r="C56">
-        <v>0.1100426803273028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.077036260222154</v>
+      </c>
+      <c r="D56">
+        <v>-0.01771916157561596</v>
+      </c>
+      <c r="E56">
+        <v>0.03533767312483564</v>
+      </c>
+      <c r="F56">
+        <v>-0.06508036376516746</v>
+      </c>
+      <c r="G56">
+        <v>0.04203145902446958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1165836901634176</v>
+        <v>-0.1083671528978029</v>
       </c>
       <c r="C58">
-        <v>0.0329190050792035</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0008174672761654372</v>
+      </c>
+      <c r="D58">
+        <v>-0.05072522964938909</v>
+      </c>
+      <c r="E58">
+        <v>-0.1773567520269103</v>
+      </c>
+      <c r="F58">
+        <v>-0.04918223481150145</v>
+      </c>
+      <c r="G58">
+        <v>0.0414980548827208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1089386779170049</v>
+        <v>-0.1475711064430338</v>
       </c>
       <c r="C59">
-        <v>0.08773266199308735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08501425748497636</v>
+      </c>
+      <c r="D59">
+        <v>0.349169500012987</v>
+      </c>
+      <c r="E59">
+        <v>-0.04649974489755623</v>
+      </c>
+      <c r="F59">
+        <v>0.02363105993275725</v>
+      </c>
+      <c r="G59">
+        <v>0.006481942112932461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.182526010074835</v>
+        <v>-0.2123213625180542</v>
       </c>
       <c r="C60">
-        <v>0.1163285010905898</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07898495160446604</v>
+      </c>
+      <c r="D60">
+        <v>-0.01745238352414036</v>
+      </c>
+      <c r="E60">
+        <v>0.07797186477826021</v>
+      </c>
+      <c r="F60">
+        <v>-0.03796636931680645</v>
+      </c>
+      <c r="G60">
+        <v>-0.02950717236592431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07705614122671785</v>
+        <v>-0.08390446807660541</v>
       </c>
       <c r="C61">
-        <v>0.05840963591004041</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03823548272602466</v>
+      </c>
+      <c r="D61">
+        <v>-0.06158314265386011</v>
+      </c>
+      <c r="E61">
+        <v>0.01282756252399988</v>
+      </c>
+      <c r="F61">
+        <v>-0.006259982021285605</v>
+      </c>
+      <c r="G61">
+        <v>0.03485471387170436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.117982374593902</v>
+        <v>-0.1385045695949411</v>
       </c>
       <c r="C62">
-        <v>0.08384320709837279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05968834375318841</v>
+      </c>
+      <c r="D62">
+        <v>-0.02856152137072641</v>
+      </c>
+      <c r="E62">
+        <v>0.05196727768251113</v>
+      </c>
+      <c r="F62">
+        <v>-0.02999186698328131</v>
+      </c>
+      <c r="G62">
+        <v>-0.01038667678277158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0483973894704873</v>
+        <v>-0.05130233737940289</v>
       </c>
       <c r="C63">
-        <v>0.02891155019995142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01748771519397393</v>
+      </c>
+      <c r="D63">
+        <v>-0.03134821871604541</v>
+      </c>
+      <c r="E63">
+        <v>-0.04552666066945223</v>
+      </c>
+      <c r="F63">
+        <v>-0.01510301698907215</v>
+      </c>
+      <c r="G63">
+        <v>-0.02202676056987258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1061136659187398</v>
+        <v>-0.1101939206896335</v>
       </c>
       <c r="C64">
-        <v>0.0465203559927135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02412512829864672</v>
+      </c>
+      <c r="D64">
+        <v>-0.04806055073653245</v>
+      </c>
+      <c r="E64">
+        <v>-0.03037911861979971</v>
+      </c>
+      <c r="F64">
+        <v>-0.04921748439277399</v>
+      </c>
+      <c r="G64">
+        <v>-0.01261810884444738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1076665073568069</v>
+        <v>-0.1212506003096421</v>
       </c>
       <c r="C65">
-        <v>0.06568658497818974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04422684549040862</v>
+      </c>
+      <c r="D65">
+        <v>-0.01620929335056956</v>
+      </c>
+      <c r="E65">
+        <v>0.008221367063052518</v>
+      </c>
+      <c r="F65">
+        <v>-0.06412564534322554</v>
+      </c>
+      <c r="G65">
+        <v>-0.03602579391342681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1351100510408874</v>
+        <v>-0.1512701042260298</v>
       </c>
       <c r="C66">
-        <v>0.09004138588219915</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05654600627351952</v>
+      </c>
+      <c r="D66">
+        <v>-0.1198880835920928</v>
+      </c>
+      <c r="E66">
+        <v>0.05142403793306017</v>
+      </c>
+      <c r="F66">
+        <v>-0.04799480765609459</v>
+      </c>
+      <c r="G66">
+        <v>0.01715091836827605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06898384246670081</v>
+        <v>-0.07344263627856694</v>
       </c>
       <c r="C67">
-        <v>0.02507162462182361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008695405032631071</v>
+      </c>
+      <c r="D67">
+        <v>-0.02544631229416243</v>
+      </c>
+      <c r="E67">
+        <v>-0.02876210501317296</v>
+      </c>
+      <c r="F67">
+        <v>0.01092105673079823</v>
+      </c>
+      <c r="G67">
+        <v>-0.002375454782872736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0556230396136349</v>
+        <v>-0.07021609412681742</v>
       </c>
       <c r="C68">
-        <v>0.04912557837975413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04849507464920366</v>
+      </c>
+      <c r="D68">
+        <v>0.2638214288203196</v>
+      </c>
+      <c r="E68">
+        <v>-0.04836529367539263</v>
+      </c>
+      <c r="F68">
+        <v>-0.01126968721282217</v>
+      </c>
+      <c r="G68">
+        <v>0.001310704736526409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04770567341049052</v>
+        <v>-0.05084925115827135</v>
       </c>
       <c r="C69">
-        <v>0.02739284863712008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01280071655218751</v>
+      </c>
+      <c r="D69">
+        <v>-0.0357345307339868</v>
+      </c>
+      <c r="E69">
+        <v>-0.01743794739518091</v>
+      </c>
+      <c r="F69">
+        <v>-0.003533845039015707</v>
+      </c>
+      <c r="G69">
+        <v>0.01010195571978663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003542277179719368</v>
+        <v>-0.01061331093727663</v>
       </c>
       <c r="C70">
-        <v>-0.001832402183483583</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001039576664556132</v>
+      </c>
+      <c r="D70">
+        <v>0.001489621798697885</v>
+      </c>
+      <c r="E70">
+        <v>0.006627149526105181</v>
+      </c>
+      <c r="F70">
+        <v>0.008436240502872639</v>
+      </c>
+      <c r="G70">
+        <v>-0.0001267691448792334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05777529070733287</v>
+        <v>-0.07325780518803095</v>
       </c>
       <c r="C71">
-        <v>0.04939311448442044</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04839380792988947</v>
+      </c>
+      <c r="D71">
+        <v>0.3025684494086034</v>
+      </c>
+      <c r="E71">
+        <v>-0.0485416706794246</v>
+      </c>
+      <c r="F71">
+        <v>-0.02488191289993805</v>
+      </c>
+      <c r="G71">
+        <v>0.00526830248307548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1292958662860634</v>
+        <v>-0.1498784497258242</v>
       </c>
       <c r="C72">
-        <v>0.07667387888580626</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0514001316036042</v>
+      </c>
+      <c r="D72">
+        <v>-0.01102473918990296</v>
+      </c>
+      <c r="E72">
+        <v>0.1047567027868854</v>
+      </c>
+      <c r="F72">
+        <v>0.1392982605499966</v>
+      </c>
+      <c r="G72">
+        <v>-0.1213403575673879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2421412162033812</v>
+        <v>-0.2683795443241592</v>
       </c>
       <c r="C73">
-        <v>0.139925097076165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0874522550812654</v>
+      </c>
+      <c r="D73">
+        <v>-0.06228769059690283</v>
+      </c>
+      <c r="E73">
+        <v>0.187384140272138</v>
+      </c>
+      <c r="F73">
+        <v>-0.07461505267940982</v>
+      </c>
+      <c r="G73">
+        <v>0.1653803662341365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0768779769867991</v>
+        <v>-0.0887273270590688</v>
       </c>
       <c r="C74">
-        <v>0.08118525424947097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06209630565214198</v>
+      </c>
+      <c r="D74">
+        <v>-0.03649117043205835</v>
+      </c>
+      <c r="E74">
+        <v>0.00317203714866344</v>
+      </c>
+      <c r="F74">
+        <v>0.00520818320784098</v>
+      </c>
+      <c r="G74">
+        <v>0.03579057932076994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09699373823404585</v>
+        <v>-0.1085542085483222</v>
       </c>
       <c r="C75">
-        <v>0.07360197171617193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04505285739675947</v>
+      </c>
+      <c r="D75">
+        <v>-0.024825633036848</v>
+      </c>
+      <c r="E75">
+        <v>-0.0107884177331868</v>
+      </c>
+      <c r="F75">
+        <v>-0.07607938149943942</v>
+      </c>
+      <c r="G75">
+        <v>0.01477201788352335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1187722180348647</v>
+        <v>-0.1334308289753779</v>
       </c>
       <c r="C76">
-        <v>0.09955003905410224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06901321051439965</v>
+      </c>
+      <c r="D76">
+        <v>-0.05830682186306884</v>
+      </c>
+      <c r="E76">
+        <v>-0.009280076173272166</v>
+      </c>
+      <c r="F76">
+        <v>-0.07228761341084775</v>
+      </c>
+      <c r="G76">
+        <v>0.02160316371205329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09445697572706453</v>
+        <v>-0.1007845292212381</v>
       </c>
       <c r="C77">
-        <v>0.06636373600412239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03384923089186671</v>
+      </c>
+      <c r="D77">
+        <v>-0.0452627220493466</v>
+      </c>
+      <c r="E77">
+        <v>0.07149945802093059</v>
+      </c>
+      <c r="F77">
+        <v>-0.3133430459937238</v>
+      </c>
+      <c r="G77">
+        <v>-0.8797764092873752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08380783212936081</v>
+        <v>-0.09949798847051733</v>
       </c>
       <c r="C78">
-        <v>0.04707994082211953</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03125599016029625</v>
+      </c>
+      <c r="D78">
+        <v>-0.07292982059459099</v>
+      </c>
+      <c r="E78">
+        <v>-0.05170058549625225</v>
+      </c>
+      <c r="F78">
+        <v>0.01174023108371879</v>
+      </c>
+      <c r="G78">
+        <v>-0.02838539536927061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1348143775655327</v>
+        <v>-0.1509786810051383</v>
       </c>
       <c r="C79">
-        <v>0.1016014807206296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06527425353034329</v>
+      </c>
+      <c r="D79">
+        <v>-0.02847850512936319</v>
+      </c>
+      <c r="E79">
+        <v>0.01853376966910769</v>
+      </c>
+      <c r="F79">
+        <v>-0.04168277475615947</v>
+      </c>
+      <c r="G79">
+        <v>0.02051317394835528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04469630810882764</v>
+        <v>-0.04007615682181544</v>
       </c>
       <c r="C80">
-        <v>0.01864520896207445</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005880157509231361</v>
+      </c>
+      <c r="D80">
+        <v>-0.0252211436295333</v>
+      </c>
+      <c r="E80">
+        <v>-0.01239815605990516</v>
+      </c>
+      <c r="F80">
+        <v>0.03185417414851258</v>
+      </c>
+      <c r="G80">
+        <v>0.04355726704544483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1085953519977329</v>
+        <v>-0.1206532072819261</v>
       </c>
       <c r="C81">
-        <v>0.0804396578478639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.051935032755954</v>
+      </c>
+      <c r="D81">
+        <v>-0.03948241406183122</v>
+      </c>
+      <c r="E81">
+        <v>0.004650780032008629</v>
+      </c>
+      <c r="F81">
+        <v>-0.04013741067358728</v>
+      </c>
+      <c r="G81">
+        <v>0.05661089038337312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1142237194107969</v>
+        <v>-0.126144387638447</v>
       </c>
       <c r="C82">
-        <v>0.09380857390238577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06088012370961634</v>
+      </c>
+      <c r="D82">
+        <v>-0.03977548982122341</v>
+      </c>
+      <c r="E82">
+        <v>0.02418801601807086</v>
+      </c>
+      <c r="F82">
+        <v>-0.05740431090139575</v>
+      </c>
+      <c r="G82">
+        <v>0.06512291976282805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07136737983554235</v>
+        <v>-0.06990980673222327</v>
       </c>
       <c r="C83">
-        <v>0.01550969417291675</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.005201762108742424</v>
+      </c>
+      <c r="D83">
+        <v>-0.04199851914567517</v>
+      </c>
+      <c r="E83">
+        <v>-0.01199229259307646</v>
+      </c>
+      <c r="F83">
+        <v>0.003743367124364817</v>
+      </c>
+      <c r="G83">
+        <v>0.05558088468338743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.0243147575771192</v>
+        <v>-0.03281102489195467</v>
       </c>
       <c r="C84">
-        <v>0.01899108791645398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01864674511503982</v>
+      </c>
+      <c r="D84">
+        <v>-0.0136435250896666</v>
+      </c>
+      <c r="E84">
+        <v>-0.008872712299488316</v>
+      </c>
+      <c r="F84">
+        <v>0.03698955896312911</v>
+      </c>
+      <c r="G84">
+        <v>0.03662249427027232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1170847126095651</v>
+        <v>-0.1185433086215727</v>
       </c>
       <c r="C85">
-        <v>0.08033290057746716</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04546693967685619</v>
+      </c>
+      <c r="D85">
+        <v>-0.03732027367851069</v>
+      </c>
+      <c r="E85">
+        <v>-0.0123602121683465</v>
+      </c>
+      <c r="F85">
+        <v>-0.0856993142894327</v>
+      </c>
+      <c r="G85">
+        <v>0.008658231832102094</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04415439232226728</v>
+        <v>-0.04658827250626777</v>
       </c>
       <c r="C86">
-        <v>0.02505791785966834</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01144838391481907</v>
+      </c>
+      <c r="D86">
+        <v>-0.01572819350360431</v>
+      </c>
+      <c r="E86">
+        <v>-0.04338044249233426</v>
+      </c>
+      <c r="F86">
+        <v>-0.00875832077446408</v>
+      </c>
+      <c r="G86">
+        <v>-0.001369459051915095</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1121554225196985</v>
+        <v>-0.1185848857539476</v>
       </c>
       <c r="C87">
-        <v>0.07993963757695459</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04704738393798873</v>
+      </c>
+      <c r="D87">
+        <v>-0.07583314611339242</v>
+      </c>
+      <c r="E87">
+        <v>-0.01077459967569971</v>
+      </c>
+      <c r="F87">
+        <v>-0.03062204818770134</v>
+      </c>
+      <c r="G87">
+        <v>-0.0994236139647986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05299094554898189</v>
+        <v>-0.0570216181525131</v>
       </c>
       <c r="C88">
-        <v>0.04210694222441391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02600927786904613</v>
+      </c>
+      <c r="D88">
+        <v>-0.02640927760886508</v>
+      </c>
+      <c r="E88">
+        <v>-0.0210283451766554</v>
+      </c>
+      <c r="F88">
+        <v>-0.008337845790034118</v>
+      </c>
+      <c r="G88">
+        <v>-0.006862582359711098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07736939339632889</v>
+        <v>-0.106478920313885</v>
       </c>
       <c r="C89">
-        <v>0.08223446173787979</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07946105302565172</v>
+      </c>
+      <c r="D89">
+        <v>0.3231949241443693</v>
+      </c>
+      <c r="E89">
+        <v>-0.09327753316048668</v>
+      </c>
+      <c r="F89">
+        <v>-0.05287073005154606</v>
+      </c>
+      <c r="G89">
+        <v>0.01278244427165317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07196677500500567</v>
+        <v>-0.09155937146585563</v>
       </c>
       <c r="C90">
-        <v>0.07354422589263084</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06924824097090025</v>
+      </c>
+      <c r="D90">
+        <v>0.3117214679822158</v>
+      </c>
+      <c r="E90">
+        <v>-0.07917731734719186</v>
+      </c>
+      <c r="F90">
+        <v>0.01518572864285741</v>
+      </c>
+      <c r="G90">
+        <v>0.01369872752711275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.08008566209098164</v>
+        <v>-0.08962589382566967</v>
       </c>
       <c r="C91">
-        <v>0.06485407901707649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04290853740818631</v>
+      </c>
+      <c r="D91">
+        <v>-0.02955330503026123</v>
+      </c>
+      <c r="E91">
+        <v>-0.005954223181161432</v>
+      </c>
+      <c r="F91">
+        <v>-0.0171040890176697</v>
+      </c>
+      <c r="G91">
+        <v>0.0342818192010159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08630882718336721</v>
+        <v>-0.105925329343973</v>
       </c>
       <c r="C92">
-        <v>0.06659797034688898</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06298477056568021</v>
+      </c>
+      <c r="D92">
+        <v>0.3287141772934502</v>
+      </c>
+      <c r="E92">
+        <v>-0.03153746038633006</v>
+      </c>
+      <c r="F92">
+        <v>-0.0310802453236579</v>
+      </c>
+      <c r="G92">
+        <v>-0.02044943768396556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0638637100250212</v>
+        <v>-0.08657046501107973</v>
       </c>
       <c r="C93">
-        <v>0.06878760272535038</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06757930427435428</v>
+      </c>
+      <c r="D93">
+        <v>0.298370130666052</v>
+      </c>
+      <c r="E93">
+        <v>-0.04460302373548889</v>
+      </c>
+      <c r="F93">
+        <v>-0.03647737357924986</v>
+      </c>
+      <c r="G93">
+        <v>-0.01304068101474286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1264491325631082</v>
+        <v>-0.1293470904911979</v>
       </c>
       <c r="C94">
-        <v>0.07920870936052556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03944731893334032</v>
+      </c>
+      <c r="D94">
+        <v>-0.05752247385905018</v>
+      </c>
+      <c r="E94">
+        <v>0.02575929241590341</v>
+      </c>
+      <c r="F94">
+        <v>-0.05155063925348297</v>
+      </c>
+      <c r="G94">
+        <v>0.04104911962672349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1136048681125492</v>
+        <v>-0.1197406203525098</v>
       </c>
       <c r="C95">
-        <v>0.05501671530138631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02735921391036382</v>
+      </c>
+      <c r="D95">
+        <v>-0.05977957748393346</v>
+      </c>
+      <c r="E95">
+        <v>0.01636255953489686</v>
+      </c>
+      <c r="F95">
+        <v>-0.02710062598494749</v>
+      </c>
+      <c r="G95">
+        <v>-0.007800425404952386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1879631514656465</v>
+        <v>-0.2227271877208225</v>
       </c>
       <c r="C97">
-        <v>0.07343369178947116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.0419091738210389</v>
+      </c>
+      <c r="D97">
+        <v>0.01328554140258246</v>
+      </c>
+      <c r="E97">
+        <v>0.2250999226772128</v>
+      </c>
+      <c r="F97">
+        <v>0.859911333137314</v>
+      </c>
+      <c r="G97">
+        <v>-0.2462073948147152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2345364860190001</v>
+        <v>-0.2572897883381398</v>
       </c>
       <c r="C98">
-        <v>0.1181263509028671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06111696643288465</v>
+      </c>
+      <c r="D98">
+        <v>-0.03628126969485775</v>
+      </c>
+      <c r="E98">
+        <v>0.1453776761130679</v>
+      </c>
+      <c r="F98">
+        <v>0.001524954374500442</v>
+      </c>
+      <c r="G98">
+        <v>0.2369542665504709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5604187790854249</v>
+        <v>-0.371143509017032</v>
       </c>
       <c r="C99">
-        <v>-0.8183688095260456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.917939974030618</v>
+      </c>
+      <c r="D99">
+        <v>0.0711515901250685</v>
+      </c>
+      <c r="E99">
+        <v>-0.04966359096034208</v>
+      </c>
+      <c r="F99">
+        <v>-0.03818760014692962</v>
+      </c>
+      <c r="G99">
+        <v>0.002470710750224158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03724145328225344</v>
+        <v>-0.04272102052723763</v>
       </c>
       <c r="C101">
-        <v>0.03332930461834097</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02582020400318993</v>
+      </c>
+      <c r="D101">
+        <v>-0.01020404810486074</v>
+      </c>
+      <c r="E101">
+        <v>-0.04312260571717128</v>
+      </c>
+      <c r="F101">
+        <v>-0.008155899087909362</v>
+      </c>
+      <c r="G101">
+        <v>0.006217477099957445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
